--- a/va_facility_data_2025-02-20/Twin Ports VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Twin%20Ports%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Twin Ports VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Twin%20Ports%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra962941378e245da8d81a8a1adf64da5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6ebdfcc2e4e948038def53988e7aa375"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra027df44326c49c3a1c344ab1e64023a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R810bb3cc961b4f69881094994a5bde21"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4909c945fc8a4ba1ad3e5636f3fb5945"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7aba377f6f3c4f698da5d1c53626ec10"/>
   </x:sheets>
 </x:workbook>
 </file>
